--- a/excels/装备表.xlsx
+++ b/excels/装备表.xlsx
@@ -1066,7 +1066,7 @@
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
